--- a/biology/Médecine/Toxémie_(paradigme)/Toxémie_(paradigme).xlsx
+++ b/biology/Médecine/Toxémie_(paradigme)/Toxémie_(paradigme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tox%C3%A9mie_(paradigme)</t>
+          <t>Toxémie_(paradigme)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La toxémie, dans le domaine de la médecine naturiste ou hygiéniste, est un terme utilisé dès la fin du XIXe siècle par le Dr John H. Tilden (1851-1940), et sur lequel il a basé toute sa théorie de la maladie/santé, exposée dans son œuvre maîtresse, un petit livre intitulé Toxemia - The basic Cause of Disease,  (ISBN 0-914532-07-3).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tox%C3%A9mie_(paradigme)</t>
+          <t>Toxémie_(paradigme)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tilden était obsédé par la recherche des causes de la maladie. Pour lui, la médecine ne fait que définir les maladies par leurs symptômes, mais pas par leurs causes. Elle ne s'attache qu'à supprimer les symptômes ; ayant fait cela, elle déclare la maladie comme « guérie ». 
 Tilden considère que la maladie a pour origine l'accumulation de toxines dans l'organisme, l'apparition de symptômes morbides n'étant que la conséquence ultime de cette « intoxination » excessive.
